--- a/Data/EC/NIT-9015003261.xlsx
+++ b/Data/EC/NIT-9015003261.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0FC28D07-F85C-4EF9-9A29-97AE4C554F22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E11F107B-1AE3-4F11-A760-DC94E2285D95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{93E52E38-3289-4BB7-84DE-F8A64BE6BB1B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{0503D56A-1C4D-49CD-A893-AF3FC190FB72}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -71,46 +71,46 @@
     <t>MIGUEL ANTONIO COBOS MARTINEZ</t>
   </si>
   <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
     <t>2112</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2301</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -524,7 +524,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BB49E31-CF38-4EF4-297D-57A79C10C4AF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73DB047E-F3CA-C07D-5B6F-6157651D949A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -875,7 +875,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45EE4275-301B-4D7A-BF4F-8995CC4E9F72}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9634CB10-3B02-4A36-8142-AA9C71B26F2C}">
   <dimension ref="B2:J35"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1053,7 +1053,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>36341</v>
+        <v>30284</v>
       </c>
       <c r="G16" s="18">
         <v>908526</v>
@@ -1352,7 +1352,7 @@
         <v>24</v>
       </c>
       <c r="F29" s="24">
-        <v>30284</v>
+        <v>36341</v>
       </c>
       <c r="G29" s="24">
         <v>908526</v>

--- a/Data/EC/NIT-9015003261.xlsx
+++ b/Data/EC/NIT-9015003261.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E11F107B-1AE3-4F11-A760-DC94E2285D95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{660DCF15-6996-4D35-87BE-7B2316D95705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{0503D56A-1C4D-49CD-A893-AF3FC190FB72}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{F7441B36-1255-4ED2-8589-50198DB0F1A4}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -71,46 +71,46 @@
     <t>MIGUEL ANTONIO COBOS MARTINEZ</t>
   </si>
   <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
     <t>2301</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>2112</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -209,7 +209,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -222,9 +224,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -424,23 +424,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -468,10 +468,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -524,7 +524,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73DB047E-F3CA-C07D-5B6F-6157651D949A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EFD601F-A0E6-499D-E1AE-5EE12D5E4D86}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -875,7 +875,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9634CB10-3B02-4A36-8142-AA9C71B26F2C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F61E398-2B51-4E09-BC8B-1D032FD9535F}">
   <dimension ref="B2:J35"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1053,7 +1053,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>30284</v>
+        <v>36341</v>
       </c>
       <c r="G16" s="18">
         <v>908526</v>
@@ -1352,7 +1352,7 @@
         <v>24</v>
       </c>
       <c r="F29" s="24">
-        <v>36341</v>
+        <v>30284</v>
       </c>
       <c r="G29" s="24">
         <v>908526</v>
